--- a/Documentacao/Backlog Sprint 2.xlsx
+++ b/Documentacao/Backlog Sprint 2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/everton_silva_sptech_school/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Backlog's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E8115B-9500-4D8F-A64D-44D0B16B251D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F997EE0-47F6-408A-AD95-A6DE836A04E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -128,9 +128,6 @@
     <t>Essencial</t>
   </si>
   <si>
-    <t xml:space="preserve">                        Requisito</t>
-  </si>
-  <si>
     <t>Desenvolver o arquivo da seção de Dashboard no site</t>
   </si>
   <si>
@@ -141,13 +138,16 @@
   </si>
   <si>
     <t>Utilizar o software de interface local e verificar conexão/resposta com o sensor</t>
+  </si>
+  <si>
+    <t>Requisito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,21 +157,53 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +212,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -209,30 +247,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -246,96 +260,264 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -664,254 +846,667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F7ACD7-CB6B-43D7-B88C-580E4181FF7C}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="50.58203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="53" style="11" customWidth="1"/>
+    <col min="3" max="3" width="100" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="8" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="12" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:9" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="22"/>
+    <row r="9" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="21"/>
       <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="26"/>
       <c r="D10" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="20"/>
+    <row r="11" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="21"/>
       <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="16"/>
+    <row r="12" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="23"/>
       <c r="D12" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="16"/>
+    <row r="13" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="16"/>
+    <row r="15" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="21"/>
       <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="21"/>
       <c r="D17" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-    </row>
+    <row r="18" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="23">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Desejável">
+      <formula>NOT(ISERROR(SEARCH("Desejável",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Importante">
+      <formula>NOT(ISERROR(SEARCH("Importante",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Essencial">
+      <formula>NOT(ISERROR(SEARCH("Essencial",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="936353fbdaa3cfa0ada3a067af0b2a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5658a1d30780e9e89567900e1bf7d795" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -1067,15 +1662,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1085,6 +1671,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB777AEF-5D4C-4BEF-900A-6CFC6B8A0F7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321EAE51-19EC-4137-85E2-53B3E28A00D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1102,26 +1696,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB777AEF-5D4C-4BEF-900A-6CFC6B8A0F7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC0BADE-6E85-4687-8BBF-88DC8B5A95FE}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>